--- a/Book chapter Studies/Data to optimization/Scenarios_250117_New scenario method.xlsx
+++ b/Book chapter Studies/Data to optimization/Scenarios_250117_New scenario method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Pipeline-dispatcher\Book chapter Studies\Data to optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1EC1F0-AF90-4FDC-9C1F-1632927AB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421DD28-33C6-4292-910B-BB6B451A11B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="2175" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology Parameters" sheetId="4" r:id="rId1"/>
@@ -39,39 +39,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>Scenario1</t>
-  </si>
-  <si>
-    <t>Scenario2</t>
-  </si>
-  <si>
-    <t>Scenario3</t>
-  </si>
-  <si>
-    <t>Scenario4</t>
-  </si>
-  <si>
-    <t>Scenario5</t>
-  </si>
-  <si>
-    <t>Scenario6</t>
-  </si>
-  <si>
-    <t>Scenario7</t>
-  </si>
-  <si>
-    <t>Scenario8</t>
-  </si>
-  <si>
     <t>BAT (kW)</t>
   </si>
   <si>
     <t>HP (kW)</t>
   </si>
   <si>
-    <t>Scenario0 (Base case)</t>
-  </si>
-  <si>
     <t>NESS_BAT</t>
   </si>
   <si>
@@ -160,6 +133,33 @@
   </si>
   <si>
     <t>O&amp;M cost Euro/kWh</t>
+  </si>
+  <si>
+    <t>Scenario_Base_1</t>
+  </si>
+  <si>
+    <t>Scenario_Base_2</t>
+  </si>
+  <si>
+    <t>Scenario_Base_3</t>
+  </si>
+  <si>
+    <t>Scenario_UpperCost_1</t>
+  </si>
+  <si>
+    <t>Scenario_UpperCost_2</t>
+  </si>
+  <si>
+    <t>Scenario_UpperCost_3</t>
+  </si>
+  <si>
+    <t>Scenario_LowerCost_1</t>
+  </si>
+  <si>
+    <t>Scenario_LowerCost_2</t>
+  </si>
+  <si>
+    <t>Scenario_LowerCost_3</t>
   </si>
 </sst>
 </file>
@@ -545,35 +545,35 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -585,7 +585,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>2500</v>
@@ -594,9 +594,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>286.125</v>
@@ -608,7 +608,7 @@
         <v>205</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3">
         <v>1.2E-2</v>
@@ -617,9 +617,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>2E-3</v>
@@ -631,9 +631,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <f>B3*B4</f>
@@ -648,9 +648,9 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>200</v>
@@ -662,9 +662,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <f>B6*B3</f>
@@ -688,93 +688,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AB6176-32BE-4074-8A6B-0AF8F24AB42E}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>83</v>
@@ -809,7 +809,7 @@
       <c r="L2" s="3">
         <v>57225</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>28</v>
       </c>
       <c r="N2" s="7">
@@ -838,12 +838,12 @@
         <v>56.40025</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="3">
-        <v>123.07</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3">
         <v>82</v>
@@ -875,8 +875,8 @@
       <c r="L3" s="3">
         <v>57225</v>
       </c>
-      <c r="M3" s="3">
-        <v>28</v>
+      <c r="M3">
+        <v>22</v>
       </c>
       <c r="N3" s="7">
         <v>50</v>
@@ -897,19 +897,19 @@
       </c>
       <c r="S3" s="3">
         <f>B3*F3+G3*L3+M3*R3</f>
-        <v>4523554</v>
+        <v>3529755</v>
       </c>
       <c r="T3" s="2">
         <f>B3*E3+G3*K3+M3*Q3</f>
-        <v>72.828949999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>56.40025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="3">
-        <v>68.040000000000006</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3">
         <v>82</v>
@@ -941,8 +941,8 @@
       <c r="L4" s="3">
         <v>57225</v>
       </c>
-      <c r="M4" s="3">
-        <v>28</v>
+      <c r="M4">
+        <v>34</v>
       </c>
       <c r="N4" s="7">
         <v>50</v>
@@ -963,19 +963,19 @@
       </c>
       <c r="S4" s="3">
         <f t="shared" ref="S4:S10" si="1">B4*F4+G4*L4+M4*R4</f>
-        <v>2944193</v>
+        <v>3217335</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ref="T4:T10" si="2">B4*E4+G4*K4+M4*Q4</f>
-        <v>50.266649999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>56.40025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="3">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3">
         <v>82</v>
@@ -1007,8 +1007,8 @@
       <c r="L5" s="3">
         <v>57225</v>
       </c>
-      <c r="M5" s="3">
-        <v>54.71</v>
+      <c r="M5">
+        <v>28</v>
       </c>
       <c r="N5" s="7">
         <v>50</v>
@@ -1029,16 +1029,16 @@
       </c>
       <c r="S5" s="3">
         <f t="shared" si="1"/>
-        <v>3828015.65</v>
+        <v>3918845</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="2"/>
-        <v>72.826899999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>64.190249999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>83</v>
@@ -1073,8 +1073,8 @@
       <c r="L6" s="3">
         <v>57225</v>
       </c>
-      <c r="M6" s="3">
-        <v>18.03</v>
+      <c r="M6">
+        <v>40</v>
       </c>
       <c r="N6" s="7">
         <v>50</v>
@@ -1095,16 +1095,16 @@
       </c>
       <c r="S6" s="3">
         <f t="shared" si="1"/>
-        <v>3203905.45</v>
+        <v>3577725</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="2"/>
-        <v>50.268700000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>63.780250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>93</v>
@@ -1139,8 +1139,8 @@
       <c r="L7" s="3">
         <v>57225</v>
       </c>
-      <c r="M7" s="3">
-        <v>48.04</v>
+      <c r="M7">
+        <v>34</v>
       </c>
       <c r="N7" s="7">
         <v>50</v>
@@ -1161,19 +1161,19 @@
       </c>
       <c r="S7" s="3">
         <f t="shared" si="1"/>
-        <v>4001525.6</v>
+        <v>3762635</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="2"/>
-        <v>72.824849999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>64.190249999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="3">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>82</v>
@@ -1205,8 +1205,8 @@
       <c r="L8" s="3">
         <v>57225</v>
       </c>
-      <c r="M8" s="3">
-        <v>41.38</v>
+      <c r="M8">
+        <v>28</v>
       </c>
       <c r="N8" s="7">
         <v>50</v>
@@ -1227,19 +1227,19 @@
       </c>
       <c r="S8" s="3">
         <f t="shared" si="1"/>
-        <v>4175205.7</v>
+        <v>2856945</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>72.828949999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>49.020249999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3">
         <v>82</v>
@@ -1271,8 +1271,8 @@
       <c r="L9" s="3">
         <v>57225</v>
       </c>
-      <c r="M9" s="3">
-        <v>24.69</v>
+      <c r="M9">
+        <v>16</v>
       </c>
       <c r="N9" s="7">
         <v>50</v>
@@ -1293,19 +1293,19 @@
       </c>
       <c r="S9" s="3">
         <f t="shared" si="1"/>
-        <v>3030225.35</v>
+        <v>3169365</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="2"/>
-        <v>50.264600000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>49.020250000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="3">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3">
         <v>82</v>
@@ -1337,8 +1337,8 @@
       <c r="L10" s="3">
         <v>57225</v>
       </c>
-      <c r="M10" s="2">
-        <v>31.36</v>
+      <c r="M10">
+        <v>22</v>
       </c>
       <c r="N10" s="7">
         <v>50</v>
@@ -1359,27 +1359,27 @@
       </c>
       <c r="S10" s="3">
         <f t="shared" si="1"/>
-        <v>2856715.4</v>
+        <v>2984455</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="2"/>
-        <v>50.266649999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48.610250000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="34" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F34" s="6"/>
     </row>
   </sheetData>
